--- a/gsem/gsem_output/Supplemental_Tables.xlsx
+++ b/gsem/gsem_output/Supplemental_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks54578/Library/CloudStorage/Box-Box/GENIE_GSEM/gsem/gsem_output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineschaumberg/Library/CloudStorage/Box-Box/GENIE_GSEM/gsem/gsem_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A570401E-871E-D64E-A118-5A229E00D126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CB530C-D10D-DD44-BBA7-0E4E2CBB0480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="29800" windowHeight="13820" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="29800" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST1_GWAS_Sumstats_Settings" sheetId="1" r:id="rId1"/>
@@ -1314,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1329,7 +1329,7 @@
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="36.6640625" customWidth="1"/>
     <col min="9" max="9" width="47.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" customWidth="1"/>
@@ -3675,7 +3675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4622,7 +4624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5941,7 +5945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7092,7 +7096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
